--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3350567.806858827</v>
+        <v>3426097.476523633</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.72834075468957</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>36.72126511067018</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>179.9001870840517</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>93.63007230513458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>130.5309659613368</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>168.2754398796849</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>143.7391060166177</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0.2116514594134253</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.710489970433158</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.84216607141764</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>197.612071473515</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>147.6987677450482</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>71.31789205189843</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.62324249224023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>155.5863702446829</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.1163355383938</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>44.74041742066648</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.924765229694407</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>268.6356596525297</v>
+        <v>264.3422707622819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>160.6333715249143</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>88.85520853679091</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4370,10 +4372,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3883323957195</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>509.3883323957195</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>691.0367972259593</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>691.0367972259593</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>691.0367972259593</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>691.0367972259593</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>691.0367972259593</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.0367972259593</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>807.0901266180492</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>807.0901266180492</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2152.732416223701</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1799.963760953587</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>1426.498002692507</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.4487670819046</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.4487670819046</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.4487670819046</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>231.448966820237</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>231.448966820237</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>564.1527310008552</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>962.0987983716307</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>962.0987983716307</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>962.0987983716307</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>551.1128935820232</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.929385370314</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.929385370314</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2496.929385370314</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2165.866498026743</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.81329560617297</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.81329560617297</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>726.401216559532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>578.2545579937159</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>578.2545579937159</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>578.2545579937159</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5318,7 +5320,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>964.447598905683</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2446.115379232725</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5674,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5753,22 +5755,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4244.714639971548</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>4075.778457043641</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>3925.661817631305</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048912</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048912</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>926.0201707730128</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>926.0201707730128</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.752914771445</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X22" t="n">
-        <v>4244.714639971548</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y22" t="n">
-        <v>4244.714639971548</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,13 +6013,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6032,7 +6034,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.6741500022174</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1341.758320815798</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1341.758320815798</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1341.758320815798</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>1341.758320815798</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>1052.341150778838</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324571</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6218,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.313911428212</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T28" t="n">
-        <v>1350.313911428212</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U28" t="n">
-        <v>1350.313911428212</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V28" t="n">
-        <v>1350.313911428212</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.896741391251</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.896741391251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.3109288932102</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1142.728816206324</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.75197286698</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.95939372345</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6679,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7254,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028587</v>
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7400,10 +7402,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7412,46 +7414,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.223678370532</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C43" t="n">
-        <v>394.223678370532</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>803.861694098789</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="V43" t="n">
-        <v>803.861694098789</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="W43" t="n">
-        <v>803.861694098789</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X43" t="n">
-        <v>575.8721432007717</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y43" t="n">
-        <v>575.8721432007717</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,43 +7651,43 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7734,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.6010158349783</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C46" t="n">
-        <v>545.6648329070714</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D46" t="n">
         <v>395.5481934947357</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>986.0022165609664</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X46" t="n">
-        <v>896.249480665218</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y46" t="n">
-        <v>896.249480665218</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.23759968302045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.83804904622852</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.59179657515153</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>88.6252809250623</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542541</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>138.5385846535291</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>154.3917633371387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>137.6235786063876</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>42.33443973892037</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>50.80447444520942</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>176.8071436377228</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>124.5670006750239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>159.5688032336832</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>17.60169274604766</v>
+        <v>21.8950816362954</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>19.19860865702304</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>136.8544468522462</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
-      </c>
-      <c r="C2" t="n">
-        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="O2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="P2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007514</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007539</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007485</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,22 +26487,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092338</v>
+        <v>-122858.5016092341</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053105</v>
+        <v>467109.3776053108</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053109</v>
+        <v>467109.377605311</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248477</v>
+        <v>39685.30747248445</v>
       </c>
       <c r="F6" t="n">
         <v>564845.3439493807</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493809</v>
+        <v>564845.3439493806</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493811</v>
+        <v>564845.3439493807</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493806</v>
+        <v>564845.343949381</v>
       </c>
       <c r="J6" t="n">
         <v>388422.1247567878</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493806</v>
+        <v>564845.3439493807</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493808</v>
+        <v>564845.3439493809</v>
       </c>
       <c r="M6" t="n">
         <v>430044.3287155435</v>
       </c>
       <c r="N6" t="n">
+        <v>564845.3439493807</v>
+      </c>
+      <c r="O6" t="n">
         <v>564845.3439493809</v>
       </c>
-      <c r="O6" t="n">
-        <v>564845.3439493806</v>
-      </c>
       <c r="P6" t="n">
-        <v>564845.3439493809</v>
+        <v>564845.343949381</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545551</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>296.2020293175722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3138403474141</v>
+        <v>21.87414536972193</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>226.9758586576598</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>234.1221861650003</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>4.434655831001379</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>62.69861478456104</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>245.5087301411101</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>30.67660679235385</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.2093965635178</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.41225998448115</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.695231852962484e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.2506324680946</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36455,7 +36457,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>222.9314639777532</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426097.476523633</v>
+        <v>3419080.461631922</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85.72834075468957</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827644</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>203.1609600883623</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>179.9001870840517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.5309659613368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.983388191319386</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>143.7391060166177</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2116514594134253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.84216607141764</v>
+        <v>67.08991894886655</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>197.612071473515</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065119</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>194.9576419790505</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6987677450482</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.5863702446829</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149.0799667719507</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>44.74041742066648</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.924765229694407</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>264.3422707622819</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.6333715249143</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>632.3182666762915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165211</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.3558252248</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>807.0901266180492</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>807.0901266180492</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229333</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>400.4487670819046</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>400.4487670819046</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>400.4487670819046</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>231.448966820237</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>231.448966820237</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>59.98680827624262</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2496.929385370314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2496.929385370314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2496.929385370314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.866498026743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1813.097842756629</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185087</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>249.9299350185087</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>99.81329560617297</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>99.81329560617297</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185087</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>738.7219969042602</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>738.7219969042602</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D13" t="n">
-        <v>738.7219969042602</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,13 +5314,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.447598905683</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>964.447598905683</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305956</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870655</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>926.0201707730128</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>926.0201707730128</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>636.6030007360521</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>636.6030007360521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6019,19 +6019,19 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1341.758320815798</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1341.758320815798</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1341.758320815798</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1341.758320815798</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1052.341150778838</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1348.33044553573</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1142.728816206324</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>853.6001774198821</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>853.6001774198821</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>564.1830073829216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6739,13 +6739,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028583</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7119,22 +7119,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U43" t="n">
-        <v>1008.118460638033</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V43" t="n">
-        <v>1008.118460638033</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.118460638033</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X43" t="n">
-        <v>780.1289097400152</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>559.336330596485</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7657,22 +7657,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.5481934947357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>395.5481934947357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5481934947357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028587</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W46" t="n">
-        <v>785.7936752259998</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>557.8041243279824</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.8041243279824</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.59179657515153</v>
+        <v>79.34404369770262</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>88.6252809250623</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542541</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>30.7520134099866</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.5385846535291</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>42.33443973892037</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>48.84084321165253</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>176.8071436377228</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>159.5688032336832</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>21.8950816362954</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.19860865702304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007514</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092341</v>
+        <v>-122858.5016092333</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053108</v>
+        <v>467109.377605311</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.377605311</v>
+        <v>467109.3776053109</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248445</v>
+        <v>38710.71621276276</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896594</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493806</v>
+        <v>563870.752689659</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.343949381</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567878</v>
+        <v>387447.5334970661</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.752689659</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896589</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155435</v>
+        <v>429069.7374558216</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.752689659</v>
       </c>
       <c r="O6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.752689659</v>
       </c>
       <c r="P6" t="n">
-        <v>564845.343949381</v>
+        <v>563870.7526896588</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>296.2020293175722</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328923</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>21.87414536972193</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>226.9758586576598</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>4.434655831001379</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.9393845730378</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>30.67660679235385</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.2093965635178</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.695231852962484e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3419080.461631922</v>
+        <v>3424019.724480953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.8915849827644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.8845607369931</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>116.3822385351992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>96.3616331761031</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>5.983388191319386</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>143.0836051348656</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733143</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.27820527287669</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.3603560264885</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>194.9576419790505</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>191.3851144237363</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>201.171051660668</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>541.2529128004671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>171.5007985225859</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1187.828354776383</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>818.8658378359717</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>460.6001392292212</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2278.956840445156</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
         <v>2568.06040664989</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1013257704666</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5943,13 +5943,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,49 +5974,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6682,55 +6682,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7119,22 +7119,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7359,13 +7359,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.9246662551</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1439.9246662551</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1439.9246662551</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>285.1031356539336</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>79.34404369770262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.3064480792181</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>14.25511699172387</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>30.7520134099866</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>34.32454096530088</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50.96659166315996</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>51.56266414401838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
-      </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
@@ -26435,31 +26435,31 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007431</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092333</v>
+        <v>-122858.5016092336</v>
       </c>
       <c r="C6" t="n">
+        <v>467109.3776053108</v>
+      </c>
+      <c r="D6" t="n">
         <v>467109.377605311</v>
       </c>
-      <c r="D6" t="n">
-        <v>467109.3776053109</v>
-      </c>
       <c r="E6" t="n">
-        <v>38710.71621276276</v>
+        <v>39587.84834651221</v>
       </c>
       <c r="F6" t="n">
-        <v>563870.7526896594</v>
+        <v>564747.884823409</v>
       </c>
       <c r="G6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="H6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="I6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="J6" t="n">
-        <v>387447.5334970661</v>
+        <v>388324.6656308151</v>
       </c>
       <c r="K6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="L6" t="n">
-        <v>563870.7526896589</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="M6" t="n">
-        <v>429069.7374558216</v>
+        <v>429946.8695895712</v>
       </c>
       <c r="N6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="O6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="P6" t="n">
-        <v>563870.7526896588</v>
+        <v>564747.8848234084</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.34635367328923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.26097821302579</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2558333115945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>297.4019314855958</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>273.3694675023659</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>317.9393845730378</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>108.1405623734237</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946059</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
@@ -35503,7 +35503,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35731,22 +35731,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>595.5275127043998</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
